--- a/medicine/Psychotrope/Fils_releveurs/Fils_releveurs.xlsx
+++ b/medicine/Psychotrope/Fils_releveurs/Fils_releveurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fils releveurs viennent en complément des autres fils pour la réalisation du palissage en viticulture. Ils ont des rôles précis et peuvent être constitués en différents matériaux. Leur choix doit dépendre de plusieurs critères.
 </t>
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils doivent principalement maintenir verticalement les sarments et accompagner leurs croissances de façon  à optimiser la surface foliaire exposée. En maintenant le feuillage relevé, ils libèrent l'espace entre rangs pour permettre le passage des outils.
 </t>
@@ -542,7 +556,9 @@
           <t>Matériaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils peuvent être  réalisés en métal ou en matières plastiques
 </t>
@@ -573,7 +589,9 @@
           <t>Dimensionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils doivent être adaptés à la hauteur foliaire de la vigne
 </t>
